--- a/Dashboard/media/vskp.xlsx
+++ b/Dashboard/media/vskp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__gitam__\DashBoard-BackEnd\Dashboard\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2070436-EE55-4A4B-B4B7-C4E77406CC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E890F0-CD57-447C-B713-F82AEE3370CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,7 +227,7 @@
       <name val="Inconsolata"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +270,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFAEEB96"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -392,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -435,6 +441,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,8 +689,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -694,100 +703,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="21"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="22"/>
     </row>
     <row r="3" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="22"/>
+      <c r="K3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="20" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="20" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="20" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21"/>
+      <c r="T3" s="22"/>
     </row>
     <row r="4" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
@@ -866,8 +875,14 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="S5" s="5">
+        <f>SUM(C5,E5,G5,I5,K5,M5,O5,Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <f>SUM(D5,F5,H5,J5,L5,N5,P5,R5,)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="19.5" customHeight="1">
       <c r="A6" s="6">
@@ -892,8 +907,14 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="S6" s="5">
+        <f t="shared" ref="S6:S18" si="0">SUM(C6,E6,G6,I6,K6,M6,O6,Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" ref="T6:T14" si="1">SUM(D6,F6,H6,J6,L6,N6,P6,R6,)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="19.5" customHeight="1">
       <c r="A7" s="6">
@@ -918,8 +939,14 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="S7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="19.5" customHeight="1">
       <c r="A8" s="6">
@@ -944,8 +971,14 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="S8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1">
       <c r="A9" s="8">
@@ -970,11 +1003,17 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="S9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="29">
+      <c r="A10" s="30">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -996,11 +1035,17 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="S10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1020,11 +1065,17 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="S11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1044,11 +1095,17 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="S12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1068,8 +1125,14 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="S13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
       <c r="A14" s="6">
@@ -1094,8 +1157,14 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="S14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1">
       <c r="A15" s="10">
@@ -1120,8 +1189,14 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="S15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <f>SUM(D15,F15,H15,J15,L15,N15,P15,R15)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
       <c r="A16" s="10">
@@ -1146,8 +1221,14 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
+      <c r="S16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" ref="T16:T17" si="2">SUM(D16,F16,H16,J16,L16,N16,P16,R16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1">
       <c r="A17" s="10">
@@ -1172,8 +1253,14 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="S17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
       <c r="A18" s="6">
@@ -1198,8 +1285,14 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="S18" s="16">
+        <f>SUM(C18,E18,G18,I18,K18,M18,O18,Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <f>SUM(D18,F18,H18,J18,L18,N18,P18,R18)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1">
       <c r="A19" s="6">
@@ -1332,7 +1425,7 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="30">
+      <c r="A24" s="31">
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1358,7 +1451,7 @@
       <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="25"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
@@ -1378,11 +1471,14 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="16"/>
+      <c r="S25" s="16">
+        <f>MAX(C25,E25,G25,I25,K25,M25,O25,Q25,)</f>
+        <v>0</v>
+      </c>
       <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A26" s="25"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1402,11 +1498,14 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="16"/>
+      <c r="S26" s="16">
+        <f>MIN(C26,E26,G26,I26,K26,M26,O26,Q26,)</f>
+        <v>0</v>
+      </c>
       <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A27" s="26"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="7" t="s">
         <v>37</v>
       </c>
@@ -1426,7 +1525,10 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="16"/>
+      <c r="S27" s="16">
+        <f>AVERAGE(C27,E27,G27,I27,K27,M27,O27,Q27,)</f>
+        <v>0</v>
+      </c>
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" ht="12.75">
@@ -1442,51 +1544,51 @@
         <v>38</v>
       </c>
       <c r="E30" s="18">
-        <f t="shared" ref="E30:P30" si="0">SUM(E7:E9)</f>
+        <f t="shared" ref="E30:P30" si="3">SUM(E7:E9)</f>
         <v>0</v>
       </c>
       <c r="F30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P30" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q30" s="19"/>

--- a/Dashboard/media/vskp.xlsx
+++ b/Dashboard/media/vskp.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__gitam__\DashBoard-BackEnd\Dashboard\media\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ADB085-A70E-4D98-A7D1-44FF179553AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="CF 2022" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,30 +37,6 @@
     <t>Visakhapatnam Campus</t>
   </si>
   <si>
-    <t>GIT</t>
-  </si>
-  <si>
-    <t>GIM</t>
-  </si>
-  <si>
-    <t>GIS</t>
-  </si>
-  <si>
-    <t>GSoA</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>GIP</t>
-  </si>
-  <si>
-    <t>GSoL</t>
-  </si>
-  <si>
-    <t>GSGS</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -146,12 +116,36 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>GSB</t>
+  </si>
+  <si>
+    <t>GSS</t>
+  </si>
+  <si>
+    <t>GSA</t>
+  </si>
+  <si>
+    <t>GSN</t>
+  </si>
+  <si>
+    <t>GSP</t>
+  </si>
+  <si>
+    <t>GSL</t>
+  </si>
+  <si>
+    <t>GHSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -438,14 +432,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,8 +443,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,16 +669,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -697,153 +691,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="26"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="22"/>
     </row>
     <row r="3" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="22"/>
+      <c r="S3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25" t="s">
+      <c r="T3" s="22"/>
+    </row>
+    <row r="4" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="31" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="26"/>
-    </row>
-    <row r="4" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="19.5" customHeight="1">
@@ -851,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -883,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -915,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -947,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -979,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1007,11 +1001,11 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="21">
+      <c r="A10" s="30">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1039,9 +1033,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1069,9 +1063,9 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="22"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1099,9 +1093,9 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1133,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1165,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1197,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1229,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1262,7 +1256,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1294,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1326,7 +1320,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1358,7 +1352,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1390,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1422,7 +1416,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1450,11 +1444,11 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A24" s="24">
+      <c r="A24" s="31">
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1476,9 +1470,9 @@
       <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A25" s="22"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1506,9 +1500,9 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A26" s="22"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1536,9 +1530,9 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1567,15 +1561,15 @@
     </row>
     <row r="28" spans="1:21" ht="12.75">
       <c r="S28" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="17.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14.25">
       <c r="C30" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E30" s="18">
         <f t="shared" ref="E30:P30" si="22">SUM(E7:E9)</f>
@@ -1633,6 +1627,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:A4"/>
@@ -1643,11 +1642,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Dashboard/media/vskp.xlsx
+++ b/Dashboard/media/vskp.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__gitam__\DashBoard-BackEnd\Dashboard\media\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E493B-B97C-4CBD-A936-4FB66F33F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CF 2022" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -23,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>2021 - 22 OVERALL CAREER FULFILLMENT STATISTICS - CGC-V</t>
   </si>
@@ -145,8 +152,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -215,13 +222,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Inconsolata"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,12 +260,6 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -387,14 +383,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -404,15 +400,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,14 +418,17 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,22 +438,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,16 +663,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3:R3"/>
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -691,100 +685,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="22"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="21" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="21" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="23"/>
+      <c r="S3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="22"/>
+      <c r="T3" s="23"/>
     </row>
     <row r="4" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +995,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="18">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1033,7 +1027,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A11" s="26"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1057,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1093,7 +1087,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A13" s="27"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="19.5" customHeight="1">
+    <row r="17" spans="1:23" ht="19.5" customHeight="1">
       <c r="A17" s="10">
         <v>10</v>
       </c>
@@ -1249,9 +1243,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U17" s="20"/>
-    </row>
-    <row r="18" spans="1:21" ht="19.5" customHeight="1">
+      <c r="U17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" ht="19.5" customHeight="1">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -1283,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="19.5" customHeight="1">
+    <row r="19" spans="1:23" ht="19.5" customHeight="1">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -1315,7 +1309,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="19.5" customHeight="1">
+    <row r="20" spans="1:23" ht="19.5" customHeight="1">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -1347,7 +1341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="19.5" customHeight="1">
+    <row r="21" spans="1:23" ht="19.5" customHeight="1">
       <c r="A21" s="6">
         <v>14</v>
       </c>
@@ -1379,7 +1373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="19.5" customHeight="1">
+    <row r="22" spans="1:23" ht="19.5" customHeight="1">
       <c r="A22" s="6">
         <v>15</v>
       </c>
@@ -1411,7 +1405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="19.5" customHeight="1">
+    <row r="23" spans="1:23" ht="19.5" customHeight="1">
       <c r="A23" s="6">
         <v>16</v>
       </c>
@@ -1443,8 +1437,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A24" s="31">
+    <row r="24" spans="1:23" ht="19.5" customHeight="1">
+      <c r="A24" s="21">
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1466,11 +1460,11 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-    </row>
-    <row r="25" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A25" s="26"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" ht="19.5" customHeight="1">
+      <c r="A25" s="19"/>
       <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
@@ -1490,17 +1484,17 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="16">
+      <c r="S25" s="4">
         <f t="shared" ref="S25:T25" si="19">MAX(C25,E25,G25,I25,K25,M25,O25,Q25)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="4">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A26" s="26"/>
+    <row r="26" spans="1:23" ht="19.5" customHeight="1">
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>28</v>
       </c>
@@ -1520,17 +1514,17 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="16">
+      <c r="S26" s="4">
         <f t="shared" ref="S26:T26" si="20">MIN(C26,E26,G26,I26,K26,M26,O26,Q26)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="16">
+      <c r="T26" s="4">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A27" s="27"/>
+    <row r="27" spans="1:23" ht="19.5" customHeight="1">
+      <c r="A27" s="20"/>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1550,88 +1544,53 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="16" t="e">
+      <c r="S27" s="4" t="e">
         <f t="shared" ref="S27:T27" si="21">ROUND((AVERAGE(C27,E27,G27,I27,K27,M27,O27,Q27)),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="16" t="e">
+      <c r="T27" s="4" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="12.75">
-      <c r="S28" s="17" t="s">
+    <row r="28" spans="1:23" ht="12.75">
+      <c r="S28" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.25">
-      <c r="C30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="18">
-        <f t="shared" ref="E30:P30" si="22">SUM(E7:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="18">
-        <f>SUM(R7:R9)</f>
-        <v>0</v>
-      </c>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" spans="1:23" ht="12.75">
+      <c r="C30" s="30"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
+      <c r="C31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:A4"/>
@@ -1642,6 +1601,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
